--- a/85 × 贸易管理1 - Fluctuating Shop Prices 商店价格波动.xlsx
+++ b/85 × 贸易管理1 - Fluctuating Shop Prices 商店价格波动.xlsx
@@ -4,24 +4,92 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Note标签" sheetId="1" r:id="rId1"/>
-    <sheet name="插件参数" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="介绍" sheetId="4" r:id="rId1"/>
+    <sheet name="Note标签" sheetId="1" r:id="rId2"/>
+    <sheet name="插件参数" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>你的赠品有一个不断发展的市场吗？</t>
+  </si>
+  <si>
+    <t>物品的价格是否会随着时间的推移而变化，这取决于玩家对游戏的影响？添加。</t>
+  </si>
+  <si>
+    <t>该插件允许您通过RPG Maker MZ的可变系统创建波动的价格系统。</t>
+  </si>
+  <si>
+    <t>这些变量能够改变一些因素，如基本价格、基本填充、费率和平坦</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>注释标签，允许管理 base、plus、rate和flat修正值的买入和/或卖出价格。</t>
+  </si>
+  <si>
+    <t>JavaScript修改适用于那些希望通过多一点控制来完成计算的人。</t>
+  </si>
+  <si>
+    <t>确定注释标签的销售版本是否受到标准销售价格的影响。</t>
+  </si>
+  <si>
+    <t>重大改变</t>
+  </si>
+  <si>
+    <t>Buy and Sell Prices</t>
+  </si>
+  <si>
+    <t>如果任何物品、武器或盔甲的价格通过该插件的注释标签而波动，则这些插件的价格变动影响将覆盖数据库中的默认价格。</t>
+  </si>
+  <si>
+    <t>兼容性</t>
+  </si>
+  <si>
+    <t>Items and Equips Core VisuStella MZ</t>
+  </si>
+  <si>
+    <t>当使用“波动的商店价格”中的任何注释标签时，它们将绕过任何 &lt;Price: x&gt;, &lt;Sell Price: x&gt;和/或JavaScript版本。</t>
+  </si>
+  <si>
+    <t>这是因为波动的价格标签将优先考虑更好的控制和一致性。</t>
+  </si>
   <si>
     <t>Price-Related Notetags  价格</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">默认情况下，价格计算公式为： </t>
     </r>
     <r>
@@ -36,9 +104,74 @@
     </r>
   </si>
   <si>
-    <t>&lt;Price Base Variable: x&gt;
-&lt;Buy Base Variable: x&gt;
-&lt;Sell Base Variable: x&gt;</t>
+    <r>
+      <t xml:space="preserve">&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -173,7 +306,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：变量ID。该变量的值会决定此商品的</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。该变量的值会决定此商品的</t>
     </r>
     <r>
       <rPr>
@@ -201,12 +355,140 @@
     <t>物品、武器、防具</t>
   </si>
   <si>
-    <t>&lt;Price Plus Variable: x&gt;
-&lt;Buy Plus Variable: x&gt;
-&lt;Sell Plus Variable: x&gt;
-&lt;Price Plus Variable: x, x, x&gt;
-&lt;Buy Plus Variable: x, x, x&gt;
-&lt;Sell Plus Variable: x, x, x&gt;</t>
+    <r>
+      <t xml:space="preserve">&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -341,7 +623,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：变量ID。该变量的值会决定此商品的</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。该变量的值会决定此商品的</t>
     </r>
     <r>
       <rPr>
@@ -378,12 +681,140 @@
     </r>
   </si>
   <si>
-    <t>&lt;Price Rate Variable: x&gt;
-&lt;Buy Rate Variable: x&gt;
-&lt;Sell Rate Variable: x&gt;
-&lt;Price Plus Variable: x, x, x&gt;
-&lt;Buy Plus Variable: x, x, x&gt;
-&lt;Sell Plus Variable: x, x, x&gt;</t>
+    <r>
+      <t xml:space="preserve">&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -518,7 +949,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：变量ID。该变量的值会决定此商品的</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。该变量的值会决定此商品的</t>
     </r>
     <r>
       <rPr>
@@ -576,12 +1028,140 @@
     </r>
   </si>
   <si>
-    <t>&lt;Price Flat Variable: x&gt;
-&lt;Buy Flat Variable: x&gt;
-&lt;Sell Flat Variable: x&gt;
-&lt;Price Flat Variable: x, x, x&gt;
-&lt;Buy Flat Variable: x, x, x&gt;
-&lt;Sell Flat Variable: x, x, x&gt;</t>
+    <r>
+      <t xml:space="preserve">&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x&gt;
+&lt;Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;
+&lt;Buy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;
+&lt;Sell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variable: x, x, x&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -716,7 +1296,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：变量ID。该变量的值会决定此商品的</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。该变量的值会决定此商品的</t>
     </r>
     <r>
       <rPr>
@@ -763,6 +1364,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Base价格是否受影响？
 </t>
     </r>
@@ -854,6 +1462,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Plus价格是否受影响？
 </t>
     </r>
@@ -874,6 +1489,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Rate价格是否受影响？
 </t>
     </r>
@@ -897,6 +1519,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Flat价格是否受影响？
 </t>
     </r>
@@ -920,6 +1549,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">JS：最终购买：
 </t>
     </r>
@@ -942,6 +1578,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">JS：最终出售：
 </t>
     </r>
@@ -955,19 +1598,32 @@
       </rPr>
       <t>在最终确定出售价格之前要运行的代码是什么？</t>
     </r>
+  </si>
+  <si>
+    <t>// Declare Variables
+let base = arguments[0];
+let plus = arguments[1];
+let rate = arguments[2];
+let flat = arguments[3];
+// Calculations
+let price = (base + plus) * rate + flat;
+// Return Price
+price = Math.max(price, 0);
+price = Math.ceil(price);
+return price;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,32 +1656,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FFE69710"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1041,14 +1684,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1088,6 +1723,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,7 +1788,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,14 +1824,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1203,7 +1866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,7 +1881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,13 +1923,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,7 +1977,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,37 +2025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,66 +2037,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1387,6 +2050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,21 +2078,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1456,6 +2110,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,246 +2183,261 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1767,6 +2451,53 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4438650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="FlucShopPrices Params1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="2057400"/>
+          <a:ext cx="4438650" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2100,10 +2831,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="105.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -2114,63 +2948,63 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="85.5" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>3</v>
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="109.5" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="121.5" spans="1:3">
-      <c r="A4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="109.5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,13 +3014,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2194,213 +3028,236 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="65.875" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
+      <c r="A1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="37.5" spans="2:5">
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" hidden="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" hidden="1" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="2:4">
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="2:4">
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="B7" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="40.5" hidden="1" spans="2:4">
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:3">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="1" hidden="1" spans="2:4">
-      <c r="B10" s="1" t="s">
-        <v>22</v>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="40.5" hidden="1" spans="2:4">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:3">
-      <c r="A12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="2:4">
-      <c r="B13" s="1" t="s">
-        <v>22</v>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="40.5" hidden="1" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="37.5" spans="2:4">
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="37.5" spans="2:4">
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="37.5" spans="2:4">
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" ht="25.5" spans="2:4">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="2:4">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" ht="175.5" spans="2:3">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" ht="175.5" spans="2:3">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2408,29 +3265,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="77.875" customWidth="1"/>
-    <col min="2" max="2" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>